--- a/public/downloads/buckets-account-import-template.xlsx
+++ b/public/downloads/buckets-account-import-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10817"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jevohngentry/Desktop/invictus/public/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8E147E69-3897-654E-9A86-B9522B235EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9075FB5-E0FC-0941-B421-BAE9D3431F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6860" yWindow="3620" windowWidth="27640" windowHeight="16940" xr2:uid="{BAD56F22-FF8B-294C-89A7-6D7F690EC2C2}"/>
   </bookViews>
@@ -38,12 +38,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>Client ID*</t>
-  </si>
-  <si>
-    <t>Account Number*</t>
-  </si>
-  <si>
     <t>Account Value</t>
   </si>
   <si>
@@ -87,6 +81,12 @@
   </si>
   <si>
     <t>Growth%(3)</t>
+  </si>
+  <si>
+    <t>Client ID</t>
+  </si>
+  <si>
+    <t>Account Number</t>
   </si>
 </sst>
 </file>
@@ -477,7 +477,7 @@
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:T1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -494,55 +494,55 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/public/downloads/buckets-account-import-template.xlsx
+++ b/public/downloads/buckets-account-import-template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jevohngentry/Desktop/invictus/public/downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9075FB5-E0FC-0941-B421-BAE9D3431F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E941335D-D0AA-F04C-BBEF-02C3C2689D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6860" yWindow="3620" windowWidth="27640" windowHeight="16940" xr2:uid="{BAD56F22-FF8B-294C-89A7-6D7F690EC2C2}"/>
+    <workbookView xWindow="-3300" yWindow="3520" windowWidth="27640" windowHeight="16940" xr2:uid="{BAD56F22-FF8B-294C-89A7-6D7F690EC2C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Account Value</t>
   </si>
@@ -47,53 +47,29 @@
     <t>Systematic Withdraw Frequency</t>
   </si>
   <si>
-    <t>Cash% (1)</t>
-  </si>
-  <si>
-    <t>Cash% (2)</t>
-  </si>
-  <si>
-    <t>Cash% (3)</t>
-  </si>
-  <si>
-    <t>Income%(1)</t>
-  </si>
-  <si>
-    <t>Income%(2)</t>
-  </si>
-  <si>
-    <t>Income%(3)</t>
-  </si>
-  <si>
-    <t>Annuities%(1)</t>
-  </si>
-  <si>
-    <t>Annuities%(2)</t>
-  </si>
-  <si>
-    <t>Annuities%(3)</t>
-  </si>
-  <si>
-    <t>Growth%(1)</t>
-  </si>
-  <si>
-    <t>Growth%(2)</t>
-  </si>
-  <si>
-    <t>Growth%(3)</t>
-  </si>
-  <si>
     <t>Client ID</t>
   </si>
   <si>
     <t>Account Number</t>
+  </si>
+  <si>
+    <t>Income%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cash% </t>
+  </si>
+  <si>
+    <t>Annuities%</t>
+  </si>
+  <si>
+    <t>Growth%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -105,13 +81,6 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
@@ -136,10 +105,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C0773A9-000A-C142-9AC0-9D9174053A82}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -485,19 +453,16 @@
     <col min="1" max="3" width="20.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="29.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="30.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="25.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="26.83203125" style="1" customWidth="1"/>
-    <col min="9" max="20" width="20.83203125" style="1" customWidth="1"/>
-    <col min="21" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="12" width="20.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -509,40 +474,16 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
